--- a/TestExcel/import/ขบวน1-2560.xlsx
+++ b/TestExcel/import/ขบวน1-2560.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMPLAR\Desktop\Project\New\File\G1_ปริญญา_วีรภัทร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{50564443-38E7-46D9-8F10-0EF4A290BC63}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7FA75EA-B638-4B55-AC57-A8A496C3101A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="23835" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9974" uniqueCount="2103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9974" uniqueCount="2102">
   <si>
     <t>030103100</t>
   </si>
@@ -5831,9 +5831,6 @@
   </si>
   <si>
     <t>GE.EDU.ELEC IPTM-R33S</t>
-  </si>
-  <si>
-    <t>13.00-15.00.</t>
   </si>
   <si>
     <t>GE.EDU.ELEC PoET-R41</t>
@@ -7168,8 +7165,8 @@
   </sheetPr>
   <dimension ref="A2:N2301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A2246" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D2233" sqref="D2233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.5"/>
@@ -7191,7 +7188,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
@@ -7219,7 +7216,7 @@
     </row>
     <row r="4" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B4" s="82"/>
       <c r="C4" s="82"/>
@@ -10212,7 +10209,7 @@
         <v>215</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G141" s="9" t="s">
         <v>83</v>
@@ -10344,7 +10341,7 @@
         <v>217</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G147" s="9" t="s">
         <v>220</v>
@@ -11118,10 +11115,10 @@
     <row r="186" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A186" s="9"/>
       <c r="B186" s="10" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C186" s="11" t="s">
         <v>1977</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>1978</v>
       </c>
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
@@ -11423,7 +11420,7 @@
         <v>259</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D202" s="12"/>
       <c r="E202" s="12"/>
@@ -12768,7 +12765,7 @@
         <v>320</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D271" s="12"/>
       <c r="E271" s="12"/>
@@ -15501,7 +15498,7 @@
         <v>448</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D406" s="12"/>
       <c r="E406" s="12"/>
@@ -16192,7 +16189,7 @@
         <v>475</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D442" s="12"/>
       <c r="E442" s="12"/>
@@ -18929,10 +18926,10 @@
     <row r="576" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A576" s="4"/>
       <c r="B576" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C576" s="2" t="s">
         <v>2007</v>
-      </c>
-      <c r="C576" s="2" t="s">
-        <v>2008</v>
       </c>
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
@@ -19117,7 +19114,7 @@
         <v>590</v>
       </c>
       <c r="G584" s="4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H584" s="4"/>
       <c r="J584" s="64"/>
@@ -19403,7 +19400,7 @@
         <v>589</v>
       </c>
       <c r="F598" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G598" s="4" t="s">
         <v>54</v>
@@ -19554,7 +19551,7 @@
         <v>609</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
@@ -19698,7 +19695,7 @@
         <v>595</v>
       </c>
       <c r="F612" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G612" s="4" t="s">
         <v>615</v>
@@ -19872,7 +19869,7 @@
         <v>268</v>
       </c>
       <c r="F619" s="3" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G619" s="4" t="s">
         <v>72</v>
@@ -20105,7 +20102,7 @@
         <v>634</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
@@ -20339,7 +20336,7 @@
         <v>632</v>
       </c>
       <c r="G638" s="4" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H638" s="4"/>
       <c r="I638" s="4" t="s">
@@ -20948,10 +20945,10 @@
     <row r="665" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A665" s="4"/>
       <c r="B665" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C665" s="2" t="s">
         <v>2016</v>
-      </c>
-      <c r="C665" s="2" t="s">
-        <v>2017</v>
       </c>
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
@@ -21112,7 +21109,7 @@
         <v>677</v>
       </c>
       <c r="F672" s="3" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G672" s="4" t="s">
         <v>678</v>
@@ -21138,7 +21135,7 @@
         <v>677</v>
       </c>
       <c r="F673" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G673" s="4" t="s">
         <v>679</v>
@@ -21198,7 +21195,7 @@
         <v>677</v>
       </c>
       <c r="F676" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G676" s="4" t="s">
         <v>640</v>
@@ -21224,7 +21221,7 @@
         <v>677</v>
       </c>
       <c r="F677" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G677" s="4" t="s">
         <v>641</v>
@@ -21325,7 +21322,7 @@
         <v>677</v>
       </c>
       <c r="F683" s="3" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G683" s="4" t="s">
         <v>182</v>
@@ -21351,7 +21348,7 @@
         <v>677</v>
       </c>
       <c r="F684" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G684" s="4" t="s">
         <v>185</v>
@@ -21810,10 +21807,10 @@
     <row r="705" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A705" s="4"/>
       <c r="B705" s="5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C705" s="2" t="s">
         <v>2022</v>
-      </c>
-      <c r="C705" s="2" t="s">
-        <v>2023</v>
       </c>
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
@@ -21900,7 +21897,7 @@
     <row r="709" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A709" s="4"/>
       <c r="B709" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>682</v>
@@ -21991,7 +21988,7 @@
         <v>684</v>
       </c>
       <c r="G712" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H712" s="4"/>
       <c r="I712" s="4"/>
@@ -22068,7 +22065,7 @@
     <row r="716" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A716" s="4"/>
       <c r="B716" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>694</v>
@@ -22186,7 +22183,7 @@
     <row r="722" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A722" s="4"/>
       <c r="B722" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>733</v>
@@ -22304,10 +22301,10 @@
     <row r="727" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A727" s="4"/>
       <c r="B727" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C727" s="2" t="s">
         <v>2028</v>
-      </c>
-      <c r="C727" s="2" t="s">
-        <v>2029</v>
       </c>
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
@@ -22400,7 +22397,7 @@
     <row r="731" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A731" s="4"/>
       <c r="B731" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>637</v>
@@ -22870,7 +22867,7 @@
         <v>729</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
@@ -23011,7 +23008,7 @@
     <row r="756" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A756" s="4"/>
       <c r="B756" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>732</v>
@@ -23117,7 +23114,7 @@
     <row r="762" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A762" s="4"/>
       <c r="B762" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>707</v>
@@ -23241,7 +23238,7 @@
     <row r="767" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A767" s="4"/>
       <c r="B767" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>1</v>
@@ -23842,7 +23839,7 @@
         <v>677</v>
       </c>
       <c r="F793" s="3" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="G793" s="4" t="s">
         <v>726</v>
@@ -24010,10 +24007,10 @@
     <row r="802" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A802" s="4"/>
       <c r="B802" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C802" s="2" t="s">
         <v>2035</v>
-      </c>
-      <c r="C802" s="2" t="s">
-        <v>2036</v>
       </c>
       <c r="D802" s="3"/>
       <c r="E802" s="3"/>
@@ -24042,7 +24039,7 @@
         <v>683</v>
       </c>
       <c r="F803" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="G803" s="4" t="s">
         <v>685</v>
@@ -24068,7 +24065,7 @@
         <v>683</v>
       </c>
       <c r="F804" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="G804" s="4" t="s">
         <v>710</v>
@@ -24094,7 +24091,7 @@
         <v>683</v>
       </c>
       <c r="F805" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="G805" s="4" t="s">
         <v>709</v>
@@ -24120,7 +24117,7 @@
         <v>683</v>
       </c>
       <c r="F806" s="3" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="G806" s="4" t="s">
         <v>688</v>
@@ -24146,10 +24143,10 @@
         <v>683</v>
       </c>
       <c r="F807" s="3" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G807" s="4" t="s">
         <v>2037</v>
-      </c>
-      <c r="G807" s="4" t="s">
-        <v>2038</v>
       </c>
       <c r="H807" s="4"/>
       <c r="I807" s="4"/>
@@ -24174,10 +24171,10 @@
     <row r="809" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A809" s="4"/>
       <c r="B809" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C809" s="2" t="s">
         <v>2039</v>
-      </c>
-      <c r="C809" s="2" t="s">
-        <v>2040</v>
       </c>
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
@@ -24259,10 +24256,10 @@
     <row r="813" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A813" s="4"/>
       <c r="B813" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C813" s="2" t="s">
         <v>2041</v>
-      </c>
-      <c r="C813" s="2" t="s">
-        <v>2042</v>
       </c>
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
@@ -24288,7 +24285,7 @@
       </c>
       <c r="E814" s="3"/>
       <c r="F814" s="3" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="G814" s="4" t="s">
         <v>685</v>
@@ -24314,7 +24311,7 @@
         <v>638</v>
       </c>
       <c r="F815" s="3" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="G815" s="4" t="s">
         <v>709</v>
@@ -24340,7 +24337,7 @@
         <v>638</v>
       </c>
       <c r="F816" s="3" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="G816" s="4" t="s">
         <v>689</v>
@@ -24368,10 +24365,10 @@
     <row r="818" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A818" s="4"/>
       <c r="B818" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C818" s="2" t="s">
         <v>2044</v>
-      </c>
-      <c r="C818" s="2" t="s">
-        <v>2045</v>
       </c>
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
@@ -24480,10 +24477,10 @@
     <row r="823" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A823" s="4"/>
       <c r="B823" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C823" s="2" t="s">
         <v>2046</v>
-      </c>
-      <c r="C823" s="2" t="s">
-        <v>2047</v>
       </c>
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
@@ -24512,7 +24509,7 @@
         <v>602</v>
       </c>
       <c r="F824" s="3" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="G824" s="4" t="s">
         <v>709</v>
@@ -24538,7 +24535,7 @@
         <v>602</v>
       </c>
       <c r="F825" s="3" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="G825" s="4" t="s">
         <v>710</v>
@@ -24564,7 +24561,7 @@
         <v>602</v>
       </c>
       <c r="F826" s="3" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="G826" s="4" t="s">
         <v>688</v>
@@ -24592,10 +24589,10 @@
     <row r="828" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A828" s="4"/>
       <c r="B828" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C828" s="2" t="s">
         <v>2049</v>
-      </c>
-      <c r="C828" s="2" t="s">
-        <v>2050</v>
       </c>
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
@@ -24958,7 +24955,7 @@
         <v>511</v>
       </c>
       <c r="F845" s="3" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="G845" s="4" t="s">
         <v>765</v>
@@ -25068,7 +25065,7 @@
         <v>101</v>
       </c>
       <c r="F850" s="3" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="G850" s="4" t="s">
         <v>765</v>
@@ -25155,7 +25152,7 @@
         <v>772</v>
       </c>
       <c r="F854" s="3" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="G854" s="4" t="s">
         <v>78</v>
@@ -25241,7 +25238,7 @@
         <v>619</v>
       </c>
       <c r="F858" s="3" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="G858" s="4" t="s">
         <v>78</v>
@@ -25553,7 +25550,7 @@
         <v>526</v>
       </c>
       <c r="F872" s="3" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="G872" s="4" t="s">
         <v>337</v>
@@ -27461,7 +27458,7 @@
     <row r="959" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A959" s="34"/>
       <c r="B959" s="35" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C959" s="36" t="s">
         <v>859</v>
@@ -28960,7 +28957,7 @@
         <v>926</v>
       </c>
       <c r="C1030" s="79" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D1030" s="12"/>
       <c r="E1030" s="12"/>
@@ -30083,7 +30080,7 @@
         <v>977</v>
       </c>
       <c r="C1087" s="11" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D1087" s="12"/>
       <c r="E1087" s="12"/>
@@ -30833,7 +30830,7 @@
         <v>1018</v>
       </c>
       <c r="C1127" s="11" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D1127" s="12"/>
       <c r="E1127" s="12"/>
@@ -31613,7 +31610,7 @@
         <v>1049</v>
       </c>
       <c r="C1165" s="79" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D1165" s="12"/>
       <c r="E1165" s="12"/>
@@ -32326,7 +32323,7 @@
         <v>950</v>
       </c>
       <c r="F1204" s="37" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="G1204" s="4" t="s">
         <v>69</v>
@@ -34252,7 +34249,7 @@
         <v>1159</v>
       </c>
       <c r="F1296" s="37" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="G1296" s="34" t="s">
         <v>23</v>
@@ -34272,7 +34269,7 @@
         <v>1159</v>
       </c>
       <c r="F1297" s="37" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="G1297" s="34" t="s">
         <v>23</v>
@@ -34989,7 +34986,7 @@
         <v>340</v>
       </c>
       <c r="E1337" s="36" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F1337" s="36"/>
       <c r="G1337" s="34" t="s">
@@ -36804,10 +36801,10 @@
     <row r="1428" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1428" s="34"/>
       <c r="B1428" s="35" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1428" s="36" t="s">
         <v>1988</v>
-      </c>
-      <c r="C1428" s="36" t="s">
-        <v>1989</v>
       </c>
       <c r="D1428" s="37"/>
       <c r="E1428" s="37"/>
@@ -37191,7 +37188,7 @@
     <row r="1448" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1448" s="34"/>
       <c r="B1448" s="35" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C1448" s="36" t="s">
         <v>1203</v>
@@ -37283,7 +37280,7 @@
     <row r="1453" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1453" s="34"/>
       <c r="B1453" s="35" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C1453" s="36" t="s">
         <v>1288</v>
@@ -37439,7 +37436,7 @@
     <row r="1461" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1461" s="34"/>
       <c r="B1461" s="35" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C1461" s="36" t="s">
         <v>1262</v>
@@ -37509,10 +37506,10 @@
     <row r="1465" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1465" s="34"/>
       <c r="B1465" s="35" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1465" s="36" t="s">
         <v>1993</v>
-      </c>
-      <c r="C1465" s="36" t="s">
-        <v>1994</v>
       </c>
       <c r="D1465" s="37"/>
       <c r="E1465" s="37"/>
@@ -37756,10 +37753,10 @@
     <row r="1477" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1477" s="34"/>
       <c r="B1477" s="35" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1477" s="36" t="s">
         <v>1995</v>
-      </c>
-      <c r="C1477" s="36" t="s">
-        <v>1996</v>
       </c>
       <c r="D1477" s="37"/>
       <c r="E1477" s="37"/>
@@ -37928,10 +37925,10 @@
     <row r="1487" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1487" s="34"/>
       <c r="B1487" s="35" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1487" s="36" t="s">
         <v>1997</v>
-      </c>
-      <c r="C1487" s="36" t="s">
-        <v>1998</v>
       </c>
       <c r="D1487" s="37"/>
       <c r="E1487" s="37"/>
@@ -38020,10 +38017,10 @@
     <row r="1492" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1492" s="34"/>
       <c r="B1492" s="35" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1492" s="36" t="s">
         <v>1999</v>
-      </c>
-      <c r="C1492" s="36" t="s">
-        <v>2000</v>
       </c>
       <c r="D1492" s="37"/>
       <c r="E1492" s="37"/>
@@ -38112,10 +38109,10 @@
     <row r="1497" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1497" s="34"/>
       <c r="B1497" s="35" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1497" s="36" t="s">
         <v>2001</v>
-      </c>
-      <c r="C1497" s="36" t="s">
-        <v>2002</v>
       </c>
       <c r="D1497" s="37"/>
       <c r="E1497" s="37"/>
@@ -38160,10 +38157,10 @@
     <row r="1500" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1500" s="34"/>
       <c r="B1500" s="35" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1500" s="36" t="s">
         <v>2003</v>
-      </c>
-      <c r="C1500" s="36" t="s">
-        <v>2004</v>
       </c>
       <c r="D1500" s="37"/>
       <c r="E1500" s="37"/>
@@ -38209,10 +38206,10 @@
     <row r="1503" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1503" s="34"/>
       <c r="B1503" s="35" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1503" s="36" t="s">
         <v>2005</v>
-      </c>
-      <c r="C1503" s="36" t="s">
-        <v>2006</v>
       </c>
       <c r="D1503" s="37"/>
       <c r="E1503" s="37"/>
@@ -38754,7 +38751,7 @@
     <row r="1530" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1530" s="34"/>
       <c r="B1530" s="35" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C1530" s="36" t="s">
         <v>1297</v>
@@ -40910,7 +40907,7 @@
         <v>1375</v>
       </c>
       <c r="F1635" s="37" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G1635" s="34" t="s">
         <v>1394</v>
@@ -41699,7 +41696,7 @@
         <v>1430</v>
       </c>
       <c r="C1671" s="34" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D1671" s="37"/>
       <c r="E1671" s="37"/>
@@ -43720,7 +43717,7 @@
         <v>1112</v>
       </c>
       <c r="F1769" s="70" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="G1769" s="4" t="s">
         <v>1515</v>
@@ -44504,7 +44501,7 @@
         <v>1536</v>
       </c>
       <c r="C1811" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D1811" s="3"/>
       <c r="E1811" s="3"/>
@@ -44906,7 +44903,7 @@
         <v>7</v>
       </c>
       <c r="E1829" s="46" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="F1829" s="46" t="s">
         <v>1548</v>
@@ -44996,7 +44993,7 @@
         <v>7</v>
       </c>
       <c r="E1833" s="68" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="F1833" s="37" t="s">
         <v>1553</v>
@@ -45360,7 +45357,7 @@
         <v>262</v>
       </c>
       <c r="F1850" s="37" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="G1850" s="34" t="s">
         <v>687</v>
@@ -45489,7 +45486,7 @@
         <v>407</v>
       </c>
       <c r="F1856" s="37" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="G1856" s="34" t="s">
         <v>1015</v>
@@ -46069,7 +46066,7 @@
         <v>7</v>
       </c>
       <c r="E1884" s="37" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F1884" s="37" t="s">
         <v>1592</v>
@@ -46090,7 +46087,7 @@
         <v>17</v>
       </c>
       <c r="E1885" s="37" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F1885" s="37" t="s">
         <v>1592</v>
@@ -46120,7 +46117,7 @@
         <v>1592</v>
       </c>
       <c r="G1886" s="34" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="I1886" s="8"/>
       <c r="J1886" s="66"/>
@@ -46355,7 +46352,7 @@
         <v>1612</v>
       </c>
       <c r="G1897" s="34" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="I1897" s="34" t="s">
         <v>11</v>
@@ -46472,7 +46469,7 @@
         <v>1259</v>
       </c>
       <c r="F1902" s="37" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="G1902" s="34" t="s">
         <v>1581</v>
@@ -46589,7 +46586,7 @@
         <v>1620</v>
       </c>
       <c r="G1907" s="34" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="I1907" s="8"/>
       <c r="J1907" s="66"/>
@@ -46673,7 +46670,7 @@
         <v>656</v>
       </c>
       <c r="F1911" s="37" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G1911" s="34" t="s">
         <v>1625</v>
@@ -46979,7 +46976,7 @@
         <v>476</v>
       </c>
       <c r="F1928" s="12" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="G1928" s="9" t="s">
         <v>141</v>
@@ -47234,7 +47231,7 @@
         <v>1649</v>
       </c>
       <c r="G1940" s="9" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1941" spans="1:11" x14ac:dyDescent="0.5">
@@ -47896,7 +47893,7 @@
         <v>17</v>
       </c>
       <c r="E1975" s="37" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F1975" s="37" t="s">
         <v>1576</v>
@@ -47983,7 +47980,7 @@
         <v>772</v>
       </c>
       <c r="F1979" s="37" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G1979" s="34" t="s">
         <v>1684</v>
@@ -48067,7 +48064,7 @@
         <v>1340</v>
       </c>
       <c r="F1983" s="37" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G1983" s="34" t="s">
         <v>1689</v>
@@ -48088,7 +48085,7 @@
         <v>91</v>
       </c>
       <c r="F1984" s="37" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G1984" s="34" t="s">
         <v>1690</v>
@@ -48127,7 +48124,7 @@
         <v>7</v>
       </c>
       <c r="E1986" s="3" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F1986" s="37" t="s">
         <v>1576</v>
@@ -48194,7 +48191,7 @@
         <v>931</v>
       </c>
       <c r="F1989" s="37" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G1989" s="34" t="s">
         <v>1701</v>
@@ -49192,7 +49189,7 @@
         <v>1758</v>
       </c>
       <c r="F2044" s="73" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="G2044" s="9" t="s">
         <v>185</v>
@@ -49212,7 +49209,7 @@
         <v>1758</v>
       </c>
       <c r="F2045" s="73" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="G2045" s="9" t="s">
         <v>120</v>
@@ -49275,7 +49272,7 @@
         <v>1758</v>
       </c>
       <c r="F2048" s="73" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="G2048" s="9" t="s">
         <v>149</v>
@@ -49315,7 +49312,7 @@
         <v>1758</v>
       </c>
       <c r="F2050" s="73" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="G2050" s="9" t="s">
         <v>151</v>
@@ -49355,7 +49352,7 @@
         <v>1758</v>
       </c>
       <c r="F2052" s="73" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="G2052" s="9" t="s">
         <v>160</v>
@@ -49375,7 +49372,7 @@
         <v>1758</v>
       </c>
       <c r="F2053" s="73" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G2053" s="9" t="s">
         <v>162</v>
@@ -49395,7 +49392,7 @@
         <v>1758</v>
       </c>
       <c r="F2054" s="73" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="G2054" s="9" t="s">
         <v>1668</v>
@@ -49415,7 +49412,7 @@
         <v>1758</v>
       </c>
       <c r="F2055" s="73" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G2055" s="9" t="s">
         <v>166</v>
@@ -49435,7 +49432,7 @@
         <v>1758</v>
       </c>
       <c r="F2056" s="73" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="G2056" s="9" t="s">
         <v>1760</v>
@@ -49455,7 +49452,7 @@
         <v>1758</v>
       </c>
       <c r="F2057" s="73" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="G2057" s="9" t="s">
         <v>897</v>
@@ -49495,7 +49492,7 @@
         <v>1758</v>
       </c>
       <c r="F2059" s="73" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G2059" s="9" t="s">
         <v>122</v>
@@ -49535,7 +49532,7 @@
         <v>1758</v>
       </c>
       <c r="F2061" s="73" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="G2061" s="9" t="s">
         <v>818</v>
@@ -49655,7 +49652,7 @@
         <v>1758</v>
       </c>
       <c r="F2067" s="73" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="G2067" s="9" t="s">
         <v>174</v>
@@ -49735,7 +49732,7 @@
         <v>1758</v>
       </c>
       <c r="F2071" s="73" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="G2071" s="9" t="s">
         <v>1216</v>
@@ -49775,7 +49772,7 @@
         <v>1758</v>
       </c>
       <c r="F2073" s="73" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G2073" s="9" t="s">
         <v>1205</v>
@@ -49811,7 +49808,7 @@
     </row>
     <row r="2076" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B2076" s="78" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C2076" s="77" t="s">
         <v>1757</v>
@@ -49846,7 +49843,7 @@
         <v>1758</v>
       </c>
       <c r="F2077" s="73" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G2077" s="9" t="s">
         <v>765</v>
@@ -49866,7 +49863,7 @@
         <v>1758</v>
       </c>
       <c r="F2078" s="73" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G2078" s="9" t="s">
         <v>651</v>
@@ -51062,7 +51059,7 @@
     <row r="2139" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2139" s="34"/>
       <c r="B2139" s="35" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C2139" s="34" t="s">
         <v>6</v>
@@ -51885,7 +51882,7 @@
         <v>1881</v>
       </c>
       <c r="G2181" s="34" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="H2181" s="34"/>
       <c r="I2181" s="8"/>
@@ -51968,7 +51965,7 @@
         <v>269</v>
       </c>
       <c r="F2185" s="37" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G2185" s="34" t="s">
         <v>1884</v>
@@ -52024,7 +52021,7 @@
         <v>629</v>
       </c>
       <c r="F2187" s="37" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G2187" s="34" t="s">
         <v>1886</v>
@@ -52049,7 +52046,7 @@
         <v>269</v>
       </c>
       <c r="F2188" s="37" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G2188" s="34" t="s">
         <v>1887</v>
@@ -52097,7 +52094,7 @@
         <v>1552</v>
       </c>
       <c r="F2190" s="37" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G2190" s="34" t="s">
         <v>1889</v>
@@ -52644,7 +52641,7 @@
         <v>1616</v>
       </c>
       <c r="G2214" s="34" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="H2214" s="34"/>
       <c r="I2214" s="8"/>
@@ -52747,7 +52744,7 @@
         <v>40</v>
       </c>
       <c r="F2219" s="37" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G2219" s="34" t="s">
         <v>1917</v>
@@ -52882,7 +52879,7 @@
         <v>1921</v>
       </c>
       <c r="F2225" s="37" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G2225" s="34" t="s">
         <v>1925</v>
@@ -52906,7 +52903,7 @@
         <v>1921</v>
       </c>
       <c r="F2226" s="37" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G2226" s="34" t="s">
         <v>1926</v>
@@ -52978,7 +52975,7 @@
         <v>1921</v>
       </c>
       <c r="F2229" s="37" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G2229" s="34" t="s">
         <v>1929</v>
@@ -53050,7 +53047,7 @@
         <v>1921</v>
       </c>
       <c r="F2232" s="37" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G2232" s="34" t="s">
         <v>1932</v>
@@ -53068,7 +53065,7 @@
         <v>27</v>
       </c>
       <c r="D2233" s="37" t="s">
-        <v>1933</v>
+        <v>4</v>
       </c>
       <c r="E2233" s="37" t="s">
         <v>1921</v>
@@ -53077,7 +53074,7 @@
         <v>1922</v>
       </c>
       <c r="G2233" s="34" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H2233" s="34"/>
       <c r="I2233" s="38"/>
@@ -53101,7 +53098,7 @@
         <v>1922</v>
       </c>
       <c r="G2234" s="34" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="H2234" s="34"/>
       <c r="I2234" s="38"/>
@@ -53125,7 +53122,7 @@
         <v>1922</v>
       </c>
       <c r="G2235" s="34" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="H2235" s="34"/>
       <c r="I2235" s="38"/>
@@ -53158,10 +53155,10 @@
     <row r="2238" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2238" s="34"/>
       <c r="B2238" s="35" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C2238" s="34" t="s">
         <v>1937</v>
-      </c>
-      <c r="C2238" s="34" t="s">
-        <v>1938</v>
       </c>
       <c r="D2238" s="37"/>
       <c r="E2238" s="68"/>
@@ -53192,10 +53189,10 @@
         <v>4</v>
       </c>
       <c r="E2239" s="68" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F2239" s="37" t="s">
         <v>1939</v>
-      </c>
-      <c r="F2239" s="37" t="s">
-        <v>1940</v>
       </c>
       <c r="G2239" s="34" t="s">
         <v>120</v>
@@ -53216,10 +53213,10 @@
         <v>58</v>
       </c>
       <c r="E2240" s="68" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F2240" s="37" t="s">
         <v>1939</v>
-      </c>
-      <c r="F2240" s="37" t="s">
-        <v>1940</v>
       </c>
       <c r="G2240" s="34" t="s">
         <v>1668</v>
@@ -53241,10 +53238,10 @@
         <v>208</v>
       </c>
       <c r="E2241" s="68" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F2241" s="37" t="s">
         <v>1939</v>
-      </c>
-      <c r="F2241" s="37" t="s">
-        <v>1940</v>
       </c>
       <c r="G2241" s="34" t="s">
         <v>122</v>
@@ -53277,10 +53274,10 @@
         <v>208</v>
       </c>
       <c r="E2243" s="68" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F2243" s="37" t="s">
         <v>1939</v>
-      </c>
-      <c r="F2243" s="37" t="s">
-        <v>1940</v>
       </c>
       <c r="G2243" s="34" t="s">
         <v>127</v>
@@ -53301,10 +53298,10 @@
         <v>4</v>
       </c>
       <c r="E2244" s="68" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F2244" s="37" t="s">
         <v>1939</v>
-      </c>
-      <c r="F2244" s="37" t="s">
-        <v>1940</v>
       </c>
       <c r="G2244" s="34" t="s">
         <v>129</v>
@@ -53325,10 +53322,10 @@
         <v>138</v>
       </c>
       <c r="E2245" s="68" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F2245" s="37" t="s">
         <v>1939</v>
-      </c>
-      <c r="F2245" s="37" t="s">
-        <v>1940</v>
       </c>
       <c r="G2245" s="34" t="s">
         <v>131</v>
@@ -53349,10 +53346,10 @@
         <v>4</v>
       </c>
       <c r="E2246" s="68" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F2246" s="37" t="s">
         <v>1939</v>
-      </c>
-      <c r="F2246" s="37" t="s">
-        <v>1940</v>
       </c>
       <c r="G2246" s="4" t="s">
         <v>337</v>
@@ -53373,10 +53370,10 @@
         <v>208</v>
       </c>
       <c r="E2247" s="68" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F2247" s="37" t="s">
         <v>1939</v>
-      </c>
-      <c r="F2247" s="37" t="s">
-        <v>1940</v>
       </c>
       <c r="G2247" s="4" t="s">
         <v>1760</v>
@@ -53400,10 +53397,10 @@
     <row r="2249" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2249" s="34"/>
       <c r="B2249" s="35" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C2249" s="34" t="s">
         <v>1941</v>
-      </c>
-      <c r="C2249" s="34" t="s">
-        <v>1942</v>
       </c>
       <c r="D2249" s="37"/>
       <c r="E2249" s="68"/>
@@ -53434,10 +53431,10 @@
         <v>58</v>
       </c>
       <c r="E2250" s="69" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F2250" s="37" t="s">
         <v>1943</v>
-      </c>
-      <c r="F2250" s="37" t="s">
-        <v>1944</v>
       </c>
       <c r="G2250" s="34" t="s">
         <v>1207</v>
@@ -53458,10 +53455,10 @@
         <v>4</v>
       </c>
       <c r="E2251" s="69" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F2251" s="37" t="s">
         <v>1943</v>
-      </c>
-      <c r="F2251" s="37" t="s">
-        <v>1944</v>
       </c>
       <c r="G2251" s="34" t="s">
         <v>160</v>
@@ -53483,10 +53480,10 @@
         <v>138</v>
       </c>
       <c r="E2252" s="69" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F2252" s="37" t="s">
         <v>1943</v>
-      </c>
-      <c r="F2252" s="37" t="s">
-        <v>1944</v>
       </c>
       <c r="G2252" s="34" t="s">
         <v>1210</v>
@@ -53507,10 +53504,10 @@
         <v>58</v>
       </c>
       <c r="E2253" s="69" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F2253" s="37" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G2253" s="34" t="s">
         <v>1205</v>
@@ -53531,10 +53528,10 @@
         <v>58</v>
       </c>
       <c r="E2254" s="69" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F2254" s="37" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G2254" s="34" t="s">
         <v>166</v>
@@ -53555,10 +53552,10 @@
         <v>138</v>
       </c>
       <c r="E2255" s="69" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F2255" s="37" t="s">
         <v>1943</v>
-      </c>
-      <c r="F2255" s="37" t="s">
-        <v>1944</v>
       </c>
       <c r="G2255" s="34" t="s">
         <v>168</v>
@@ -53579,10 +53576,10 @@
         <v>208</v>
       </c>
       <c r="E2256" s="69" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F2256" s="37" t="s">
         <v>1943</v>
-      </c>
-      <c r="F2256" s="37" t="s">
-        <v>1944</v>
       </c>
       <c r="G2256" s="34" t="s">
         <v>164</v>
@@ -53603,10 +53600,10 @@
         <v>208</v>
       </c>
       <c r="E2257" s="69" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F2257" s="37" t="s">
         <v>1943</v>
-      </c>
-      <c r="F2257" s="37" t="s">
-        <v>1944</v>
       </c>
       <c r="G2257" s="34" t="s">
         <v>621</v>
@@ -53627,10 +53624,10 @@
         <v>138</v>
       </c>
       <c r="E2258" s="69" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F2258" s="37" t="s">
         <v>1943</v>
-      </c>
-      <c r="F2258" s="37" t="s">
-        <v>1944</v>
       </c>
       <c r="G2258" s="34" t="s">
         <v>626</v>
@@ -53655,10 +53652,10 @@
     <row r="2260" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2260" s="34"/>
       <c r="B2260" s="35" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C2260" s="34" t="s">
         <v>1946</v>
-      </c>
-      <c r="C2260" s="34" t="s">
-        <v>1947</v>
       </c>
       <c r="D2260" s="37"/>
       <c r="E2260" s="69"/>
@@ -53689,10 +53686,10 @@
         <v>4</v>
       </c>
       <c r="E2261" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2261" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2261" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2261" s="34" t="s">
         <v>1480</v>
@@ -53713,10 +53710,10 @@
         <v>208</v>
       </c>
       <c r="E2262" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2262" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2262" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2262" s="34" t="s">
         <v>1481</v>
@@ -53738,10 +53735,10 @@
         <v>208</v>
       </c>
       <c r="E2263" s="69" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F2263" s="37" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G2263" s="34" t="s">
         <v>1482</v>
@@ -53762,10 +53759,10 @@
         <v>4</v>
       </c>
       <c r="E2264" s="69" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F2264" s="37" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G2264" s="34" t="s">
         <v>145</v>
@@ -53786,10 +53783,10 @@
         <v>4</v>
       </c>
       <c r="E2265" s="69" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F2265" s="37" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G2265" s="34" t="s">
         <v>1211</v>
@@ -53810,10 +53807,10 @@
         <v>4</v>
       </c>
       <c r="E2266" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2266" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2266" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2266" s="34" t="s">
         <v>174</v>
@@ -53834,10 +53831,10 @@
         <v>208</v>
       </c>
       <c r="E2267" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2267" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2267" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2267" s="34" t="s">
         <v>1912</v>
@@ -53858,10 +53855,10 @@
         <v>4</v>
       </c>
       <c r="E2268" s="69" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F2268" s="37" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G2268" s="34" t="s">
         <v>1216</v>
@@ -53882,10 +53879,10 @@
         <v>58</v>
       </c>
       <c r="E2269" s="69" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F2269" s="37" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G2269" s="34" t="s">
         <v>1213</v>
@@ -53906,10 +53903,10 @@
         <v>138</v>
       </c>
       <c r="E2270" s="69" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F2270" s="37" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G2270" s="34" t="s">
         <v>1214</v>
@@ -53930,10 +53927,10 @@
         <v>138</v>
       </c>
       <c r="E2271" s="69" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F2271" s="37" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G2271" s="34" t="s">
         <v>190</v>
@@ -53957,10 +53954,10 @@
     <row r="2273" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2273" s="34"/>
       <c r="B2273" s="35" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C2273" s="34" t="s">
         <v>2101</v>
-      </c>
-      <c r="C2273" s="34" t="s">
-        <v>2102</v>
       </c>
       <c r="D2273" s="37"/>
       <c r="E2273" s="69"/>
@@ -53984,10 +53981,10 @@
         <v>138</v>
       </c>
       <c r="E2274" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2274" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2274" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2274" s="34" t="s">
         <v>901</v>
@@ -54008,10 +54005,10 @@
         <v>208</v>
       </c>
       <c r="E2275" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2275" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2275" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2275" s="34" t="s">
         <v>69</v>
@@ -54033,10 +54030,10 @@
         <v>138</v>
       </c>
       <c r="E2276" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2276" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2276" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2276" s="34" t="s">
         <v>902</v>
@@ -54057,10 +54054,10 @@
         <v>138</v>
       </c>
       <c r="E2277" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2277" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2277" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2277" s="34" t="s">
         <v>818</v>
@@ -54081,10 +54078,10 @@
         <v>4</v>
       </c>
       <c r="E2278" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2278" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2278" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2278" s="34" t="s">
         <v>151</v>
@@ -54105,10 +54102,10 @@
         <v>208</v>
       </c>
       <c r="E2279" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2279" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2279" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2279" s="34" t="s">
         <v>149</v>
@@ -54129,10 +54126,10 @@
         <v>208</v>
       </c>
       <c r="E2280" s="69" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F2280" s="37" t="s">
         <v>1948</v>
-      </c>
-      <c r="F2280" s="37" t="s">
-        <v>1949</v>
       </c>
       <c r="G2280" s="34" t="s">
         <v>820</v>
@@ -54180,10 +54177,10 @@
     <row r="2284" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2284" s="34"/>
       <c r="B2284" s="35" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C2284" s="34" t="s">
         <v>1951</v>
-      </c>
-      <c r="C2284" s="34" t="s">
-        <v>1952</v>
       </c>
       <c r="D2284" s="37"/>
       <c r="E2284" s="37"/>
@@ -54236,10 +54233,10 @@
         <v>656</v>
       </c>
       <c r="F2286" s="37" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G2286" s="34" t="s">
         <v>1953</v>
-      </c>
-      <c r="G2286" s="34" t="s">
-        <v>1954</v>
       </c>
       <c r="H2286" s="34"/>
       <c r="I2286" s="8"/>
@@ -54261,10 +54258,10 @@
         <v>511</v>
       </c>
       <c r="F2287" s="37" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="G2287" s="34" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H2287" s="34"/>
       <c r="I2287" s="8"/>
@@ -54286,10 +54283,10 @@
         <v>1112</v>
       </c>
       <c r="F2288" s="37" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G2288" s="34" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H2288" s="34"/>
       <c r="I2288" s="38"/>
@@ -54313,7 +54310,7 @@
         <v>1616</v>
       </c>
       <c r="G2289" s="34" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H2289" s="34"/>
       <c r="I2289" s="38"/>
@@ -54337,7 +54334,7 @@
         <v>1616</v>
       </c>
       <c r="G2290" s="34" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H2290" s="34"/>
       <c r="I2290" s="38"/>
@@ -54358,10 +54355,10 @@
         <v>656</v>
       </c>
       <c r="F2291" s="37" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G2291" s="34" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="H2291" s="34"/>
       <c r="I2291" s="38"/>
@@ -54382,10 +54379,10 @@
     <row r="2293" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2293" s="34"/>
       <c r="B2293" s="35" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C2293" s="34" t="s">
         <v>1960</v>
-      </c>
-      <c r="C2293" s="34" t="s">
-        <v>1961</v>
       </c>
       <c r="D2293" s="37"/>
       <c r="E2293" s="37"/>
@@ -54435,13 +54432,13 @@
         <v>7</v>
       </c>
       <c r="E2295" s="37" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F2295" s="37" t="s">
         <v>1602</v>
       </c>
       <c r="G2295" s="34" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="H2295" s="34"/>
       <c r="I2295" s="8"/>
@@ -54460,13 +54457,13 @@
         <v>17</v>
       </c>
       <c r="E2296" s="37" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F2296" s="37" t="s">
         <v>1602</v>
       </c>
       <c r="G2296" s="34" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="H2296" s="34"/>
       <c r="I2296" s="8"/>
@@ -54488,10 +54485,10 @@
         <v>931</v>
       </c>
       <c r="F2297" s="37" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="G2297" s="34" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="H2297" s="34"/>
       <c r="I2297" s="38"/>
@@ -54509,13 +54506,13 @@
         <v>17</v>
       </c>
       <c r="E2298" s="37" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F2298" s="37" t="s">
         <v>1602</v>
       </c>
       <c r="G2298" s="34" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="H2298" s="34"/>
       <c r="I2298" s="38"/>

--- a/TestExcel/import/ขบวน1-2560.xlsx
+++ b/TestExcel/import/ขบวน1-2560.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMPLAR\Desktop\Project\New\File\G1_ปริญญา_วีรภัทร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7FA75EA-B638-4B55-AC57-A8A496C3101A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E161D34C-76A1-4E68-A4EB-4AD004D975CE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="23835" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7165,8 +7165,8 @@
   </sheetPr>
   <dimension ref="A2:N2301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2246" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D2233" sqref="D2233"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.5"/>
